--- a/PP Stats.xlsx
+++ b/PP Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpugh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD03C24-4385-0946-B97D-452FC1845593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB8A39-2655-0C46-922E-E538176936F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Box score - power play" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15679" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15806" uniqueCount="813">
   <si>
     <t>Date</t>
   </si>
@@ -2481,8 +2481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -2572,7 +2571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2590,19 +2589,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,7 +2913,7 @@
   <dimension ref="A1:CZ257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3237,16 +3239,16 @@
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="6">
         <v>44996</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3551,10 +3553,18 @@
       </c>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="6">
+        <v>44996</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>116</v>
       </c>
@@ -3857,7 +3867,7 @@
       </c>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>44989</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4171,10 +4181,18 @@
       </c>
     </row>
     <row r="5" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="6">
+        <v>44989</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>132</v>
       </c>
@@ -4477,7 +4495,7 @@
       </c>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>44988</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4791,10 +4809,18 @@
       </c>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="6">
+        <v>44988</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>132</v>
       </c>
@@ -5097,7 +5123,7 @@
       </c>
     </row>
     <row r="8" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>44982</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -5411,10 +5437,18 @@
       </c>
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="6">
+        <v>44982</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>170</v>
       </c>
@@ -5717,7 +5751,7 @@
       </c>
     </row>
     <row r="10" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <v>44980</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6031,10 +6065,18 @@
       </c>
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="6">
+        <v>44980</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>190</v>
       </c>
@@ -6337,7 +6379,7 @@
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>44968</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -6651,10 +6693,18 @@
       </c>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6">
+        <v>44968</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>170</v>
       </c>
@@ -6957,7 +7007,7 @@
       </c>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <v>44967</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7271,10 +7321,18 @@
       </c>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6">
+        <v>44967</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>170</v>
       </c>
@@ -7577,7 +7635,7 @@
       </c>
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>44960</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -7891,10 +7949,18 @@
       </c>
     </row>
     <row r="17" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="6">
+        <v>44960</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>227</v>
       </c>
@@ -8197,7 +8263,7 @@
       </c>
     </row>
     <row r="18" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>44954</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -8511,10 +8577,18 @@
       </c>
     </row>
     <row r="19" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="6">
+        <v>44954</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>245</v>
       </c>
@@ -8817,7 +8891,7 @@
       </c>
     </row>
     <row r="20" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>44953</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -9131,10 +9205,18 @@
       </c>
     </row>
     <row r="21" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="6">
+        <v>44953</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>259</v>
       </c>
@@ -9437,7 +9519,7 @@
       </c>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>44947</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -9751,10 +9833,18 @@
       </c>
     </row>
     <row r="23" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="6">
+        <v>44947</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>274</v>
       </c>
@@ -10057,7 +10147,7 @@
       </c>
     </row>
     <row r="24" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>44946</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -10371,10 +10461,18 @@
       </c>
     </row>
     <row r="25" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="6">
+        <v>44946</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>274</v>
       </c>
@@ -10677,7 +10775,7 @@
       </c>
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="6">
         <v>44940</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -10991,10 +11089,18 @@
       </c>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="6">
+        <v>44940</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>227</v>
       </c>
@@ -11297,7 +11403,7 @@
       </c>
     </row>
     <row r="28" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="6">
         <v>44933</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -11611,10 +11717,18 @@
       </c>
     </row>
     <row r="29" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="6">
+        <v>44933</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>227</v>
       </c>
@@ -12231,10 +12345,18 @@
       </c>
     </row>
     <row r="31" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>309</v>
       </c>
@@ -12851,10 +12973,18 @@
       </c>
     </row>
     <row r="33" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="6">
+        <v>44924</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>309</v>
       </c>
@@ -13471,10 +13601,18 @@
       </c>
     </row>
     <row r="35" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="6">
+        <v>44906</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>329</v>
       </c>
@@ -14091,10 +14229,18 @@
       </c>
     </row>
     <row r="37" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="6">
+        <v>44897</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>343</v>
       </c>
@@ -14711,10 +14857,18 @@
       </c>
     </row>
     <row r="39" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="6">
+        <v>44894</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>343</v>
       </c>
@@ -15331,10 +15485,18 @@
       </c>
     </row>
     <row r="41" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="6">
+        <v>44891</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>6</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>362</v>
       </c>
@@ -15951,10 +16113,18 @@
       </c>
     </row>
     <row r="43" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="6">
+        <v>44884</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>116</v>
       </c>
@@ -16571,10 +16741,18 @@
       </c>
     </row>
     <row r="45" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="6">
+        <v>44883</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>116</v>
       </c>
@@ -16880,13 +17058,13 @@
       <c r="A46" s="6">
         <v>44877</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="11">
         <v>7</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="11">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -17191,10 +17369,18 @@
       </c>
     </row>
     <row r="47" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="6">
+        <v>44877</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" s="11">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11">
+        <v>6</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>392</v>
       </c>
@@ -17811,10 +17997,18 @@
       </c>
     </row>
     <row r="49" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="6">
+        <v>44876</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="9">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>392</v>
       </c>
@@ -18123,10 +18317,10 @@
       <c r="B50" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C50" s="9">
-        <v>3</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C50" s="8">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8">
         <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -18431,10 +18625,18 @@
       </c>
     </row>
     <row r="51" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="6">
+        <v>44870</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>418</v>
       </c>
@@ -19051,10 +19253,18 @@
       </c>
     </row>
     <row r="53" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="6">
+        <v>44869</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="9">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>418</v>
       </c>
@@ -19671,10 +19881,18 @@
       </c>
     </row>
     <row r="55" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="6">
+        <v>44861</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="9">
+        <v>5</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>132</v>
       </c>
@@ -20291,10 +20509,18 @@
       </c>
     </row>
     <row r="57" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="6">
+        <v>44856</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>5</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>329</v>
       </c>
@@ -20603,10 +20829,10 @@
       <c r="B58" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C58" s="9">
-        <v>4</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C58" s="8">
+        <v>4</v>
+      </c>
+      <c r="D58" s="8">
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -20911,10 +21137,18 @@
       </c>
     </row>
     <row r="59" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="6">
+        <v>44855</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>329</v>
       </c>
@@ -21531,10 +21765,18 @@
       </c>
     </row>
     <row r="61" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="6">
+        <v>44849</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="9">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>459</v>
       </c>
@@ -22151,10 +22393,18 @@
       </c>
     </row>
     <row r="63" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="A63" s="6">
+        <v>44848</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>459</v>
       </c>
@@ -22771,10 +23021,18 @@
       </c>
     </row>
     <row r="65" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="6">
+        <v>44842</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C65" s="9">
+        <v>4</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>469</v>
       </c>
@@ -23391,10 +23649,18 @@
       </c>
     </row>
     <row r="67" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="A67" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C67" s="9">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>469</v>
       </c>
@@ -24011,10 +24277,18 @@
       </c>
     </row>
     <row r="69" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="6">
+        <v>44836</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C69" s="9">
+        <v>3</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>486</v>
       </c>
@@ -24323,10 +24597,10 @@
       <c r="B70" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C70" s="9">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C70" s="8">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -24631,10 +24905,18 @@
       </c>
     </row>
     <row r="71" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="A71" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>486</v>
       </c>
@@ -25251,10 +25533,18 @@
       </c>
     </row>
     <row r="73" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="6">
+        <v>44639</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>274</v>
       </c>
@@ -25871,10 +26161,18 @@
       </c>
     </row>
     <row r="75" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="6">
+        <v>44638</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>227</v>
       </c>
@@ -26491,10 +26789,18 @@
       </c>
     </row>
     <row r="77" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="6">
+        <v>44632</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77" s="9">
+        <v>3</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>329</v>
       </c>
@@ -26803,10 +27109,10 @@
       <c r="B78" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C78" s="9">
-        <v>4</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C78" s="8">
+        <v>4</v>
+      </c>
+      <c r="D78" s="8">
         <v>0</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -27111,10 +27417,18 @@
       </c>
     </row>
     <row r="79" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="6">
+        <v>44625</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C79" s="8">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>486</v>
       </c>
@@ -27731,10 +28045,18 @@
       </c>
     </row>
     <row r="81" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="A81" s="6">
+        <v>44624</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="8">
+        <v>3</v>
+      </c>
+      <c r="D81" s="8">
+        <v>5</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>486</v>
       </c>
@@ -28043,10 +28365,10 @@
       <c r="B82" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="8">
-        <v>2</v>
-      </c>
-      <c r="D82" s="8">
+      <c r="C82" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9">
         <v>5</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -28351,10 +28673,18 @@
       </c>
     </row>
     <row r="83" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="A83" s="6">
+        <v>44618</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9">
+        <v>5</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>227</v>
       </c>
@@ -28971,10 +29301,18 @@
       </c>
     </row>
     <row r="85" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="A85" s="6">
+        <v>44617</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <v>3</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>227</v>
       </c>
@@ -29591,10 +29929,18 @@
       </c>
     </row>
     <row r="87" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="A87" s="6">
+        <v>44611</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="9">
+        <v>4</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>274</v>
       </c>
@@ -30211,10 +30557,18 @@
       </c>
     </row>
     <row r="89" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="A89" s="6">
+        <v>44610</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>274</v>
       </c>
@@ -30520,13 +30874,13 @@
       <c r="A90" s="6">
         <v>44603</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="11">
         <v>6</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="11">
         <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -30831,10 +31185,18 @@
       </c>
     </row>
     <row r="91" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="6">
+        <v>44603</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="11">
+        <v>6</v>
+      </c>
+      <c r="D91" s="11">
+        <v>4</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>132</v>
       </c>
@@ -31451,10 +31813,18 @@
       </c>
     </row>
     <row r="93" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="A93" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="9">
+        <v>6</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>343</v>
       </c>
@@ -31763,10 +32133,10 @@
       <c r="B94" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>6</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -32071,10 +32441,18 @@
       </c>
     </row>
     <row r="95" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="A95" s="6">
+        <v>44597</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="8">
+        <v>6</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>170</v>
       </c>
@@ -32691,10 +33069,18 @@
       </c>
     </row>
     <row r="97" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="A97" s="6">
+        <v>44596</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="9">
+        <v>2</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>392</v>
       </c>
@@ -33003,10 +33389,10 @@
       <c r="B98" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="9">
         <v>0</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="9">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -33311,10 +33697,18 @@
       </c>
     </row>
     <row r="99" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="A99" s="6">
+        <v>44591</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0</v>
+      </c>
+      <c r="D99" s="9">
+        <v>2</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>245</v>
       </c>
@@ -33623,10 +34017,10 @@
       <c r="B100" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>5</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -33931,10 +34325,18 @@
       </c>
     </row>
     <row r="101" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="6">
+        <v>44590</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C101" s="8">
+        <v>5</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>259</v>
       </c>
@@ -34243,10 +34645,10 @@
       <c r="B102" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C102" s="9">
-        <v>3</v>
-      </c>
-      <c r="D102" s="9">
+      <c r="C102" s="8">
+        <v>3</v>
+      </c>
+      <c r="D102" s="8">
         <v>2</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -34551,10 +34953,18 @@
       </c>
     </row>
     <row r="103" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="A103" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" s="8">
+        <v>3</v>
+      </c>
+      <c r="D103" s="8">
+        <v>2</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>343</v>
       </c>
@@ -35171,10 +35581,18 @@
       </c>
     </row>
     <row r="105" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+      <c r="A105" s="6">
+        <v>44583</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="9">
+        <v>3</v>
+      </c>
+      <c r="D105" s="9">
+        <v>2</v>
+      </c>
       <c r="E105" s="2" t="s">
         <v>170</v>
       </c>
@@ -35791,10 +36209,18 @@
       </c>
     </row>
     <row r="107" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="A107" s="6">
+        <v>44582</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="8">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>170</v>
       </c>
@@ -36103,10 +36529,10 @@
       <c r="B108" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="8">
-        <v>1</v>
-      </c>
-      <c r="D108" s="8">
+      <c r="C108" s="9">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9">
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -36411,10 +36837,18 @@
       </c>
     </row>
     <row r="109" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="A109" s="6">
+        <v>44575</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9">
+        <v>2</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>329</v>
       </c>
@@ -36723,10 +37157,10 @@
       <c r="B110" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C110" s="8">
-        <v>1</v>
-      </c>
-      <c r="D110" s="8">
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -37031,10 +37465,18 @@
       </c>
     </row>
     <row r="111" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="A111" s="6">
+        <v>44572</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+      <c r="D111" s="9">
+        <v>3</v>
+      </c>
       <c r="E111" s="2" t="s">
         <v>566</v>
       </c>
@@ -37651,10 +38093,18 @@
       </c>
     </row>
     <row r="113" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="A113" s="6">
+        <v>44569</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="9">
+        <v>5</v>
+      </c>
+      <c r="D113" s="9">
+        <v>4</v>
+      </c>
       <c r="E113" s="2" t="s">
         <v>132</v>
       </c>
@@ -38271,10 +38721,18 @@
       </c>
     </row>
     <row r="115" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="A115" s="6">
+        <v>44563</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C115" s="8">
+        <v>3</v>
+      </c>
+      <c r="D115" s="8">
+        <v>6</v>
+      </c>
       <c r="E115" s="2" t="s">
         <v>579</v>
       </c>
@@ -38583,10 +39041,10 @@
       <c r="B116" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>6</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>1</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -38891,10 +39349,18 @@
       </c>
     </row>
     <row r="117" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
+      <c r="A117" s="6">
+        <v>44527</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C117" s="8">
+        <v>6</v>
+      </c>
+      <c r="D117" s="8">
+        <v>1</v>
+      </c>
       <c r="E117" s="2" t="s">
         <v>583</v>
       </c>
@@ -39511,10 +39977,18 @@
       </c>
     </row>
     <row r="119" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="A119" s="6">
+        <v>44521</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="9">
+        <v>2</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
       <c r="E119" s="2" t="s">
         <v>116</v>
       </c>
@@ -39823,10 +40297,10 @@
       <c r="B120" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="9">
         <v>0</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="9">
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -40131,10 +40605,18 @@
       </c>
     </row>
     <row r="121" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="A121" s="6">
+        <v>44520</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="9">
+        <v>0</v>
+      </c>
+      <c r="D121" s="9">
+        <v>3</v>
+      </c>
       <c r="E121" s="2" t="s">
         <v>116</v>
       </c>
@@ -40751,10 +41233,18 @@
       </c>
     </row>
     <row r="123" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="A123" s="6">
+        <v>44513</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="8">
+        <v>4</v>
+      </c>
+      <c r="D123" s="8">
+        <v>6</v>
+      </c>
       <c r="E123" s="2" t="s">
         <v>392</v>
       </c>
@@ -41371,10 +41861,18 @@
       </c>
     </row>
     <row r="125" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="A125" s="6">
+        <v>44512</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="8">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2</v>
+      </c>
       <c r="E125" s="2" t="s">
         <v>132</v>
       </c>
@@ -41991,10 +42489,18 @@
       </c>
     </row>
     <row r="127" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="A127" s="6">
+        <v>44506</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C127" s="9">
+        <v>3</v>
+      </c>
+      <c r="D127" s="9">
+        <v>2</v>
+      </c>
       <c r="E127" s="2" t="s">
         <v>418</v>
       </c>
@@ -42303,10 +42809,10 @@
       <c r="B128" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C128" s="9">
-        <v>4</v>
-      </c>
-      <c r="D128" s="9">
+      <c r="C128" s="8">
+        <v>4</v>
+      </c>
+      <c r="D128" s="8">
         <v>3</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -42611,10 +43117,18 @@
       </c>
     </row>
     <row r="129" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
+      <c r="A129" s="6">
+        <v>44505</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C129" s="8">
+        <v>4</v>
+      </c>
+      <c r="D129" s="8">
+        <v>3</v>
+      </c>
       <c r="E129" s="2" t="s">
         <v>418</v>
       </c>
@@ -43231,10 +43745,18 @@
       </c>
     </row>
     <row r="131" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="A131" s="6">
+        <v>44499</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C131" s="9">
+        <v>4</v>
+      </c>
+      <c r="D131" s="9">
+        <v>1</v>
+      </c>
       <c r="E131" s="2" t="s">
         <v>609</v>
       </c>
@@ -43543,10 +44065,10 @@
       <c r="B132" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="8">
         <v>5</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="8">
         <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -43851,10 +44373,18 @@
       </c>
     </row>
     <row r="133" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+      <c r="A133" s="6">
+        <v>44495</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="8">
+        <v>5</v>
+      </c>
+      <c r="D133" s="8">
+        <v>3</v>
+      </c>
       <c r="E133" s="2" t="s">
         <v>227</v>
       </c>
@@ -44160,13 +44690,13 @@
       <c r="A134" s="6">
         <v>44485</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="11">
         <v>0</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="11">
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -44471,10 +45001,18 @@
       </c>
     </row>
     <row r="135" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="A135" s="6">
+        <v>44485</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C135" s="11">
+        <v>0</v>
+      </c>
+      <c r="D135" s="11">
+        <v>3</v>
+      </c>
       <c r="E135" s="2" t="s">
         <v>459</v>
       </c>
@@ -44783,10 +45321,10 @@
       <c r="B136" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C136" s="8">
-        <v>3</v>
-      </c>
-      <c r="D136" s="8">
+      <c r="C136" s="9">
+        <v>3</v>
+      </c>
+      <c r="D136" s="9">
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -45091,10 +45629,18 @@
       </c>
     </row>
     <row r="137" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="A137" s="6">
+        <v>44484</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C137" s="9">
+        <v>3</v>
+      </c>
+      <c r="D137" s="9">
+        <v>4</v>
+      </c>
       <c r="E137" s="2" t="s">
         <v>459</v>
       </c>
@@ -45403,10 +45949,10 @@
       <c r="B138" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>5</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="8">
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -45711,10 +46257,18 @@
       </c>
     </row>
     <row r="139" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="A139" s="6">
+        <v>44478</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C139" s="8">
+        <v>5</v>
+      </c>
+      <c r="D139" s="8">
+        <v>1</v>
+      </c>
       <c r="E139" s="2" t="s">
         <v>329</v>
       </c>
@@ -46023,10 +46577,10 @@
       <c r="B140" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C140" s="8">
-        <v>1</v>
-      </c>
-      <c r="D140" s="8">
+      <c r="C140" s="9">
+        <v>1</v>
+      </c>
+      <c r="D140" s="9">
         <v>2</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -46331,10 +46885,18 @@
       </c>
     </row>
     <row r="141" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="A141" s="6">
+        <v>44477</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
+      <c r="D141" s="9">
+        <v>2</v>
+      </c>
       <c r="E141" s="2" t="s">
         <v>329</v>
       </c>
@@ -46951,10 +47513,18 @@
       </c>
     </row>
     <row r="143" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+      <c r="A143" s="6">
+        <v>44471</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C143" s="9">
+        <v>6</v>
+      </c>
+      <c r="D143" s="9">
+        <v>3</v>
+      </c>
       <c r="E143" s="2" t="s">
         <v>627</v>
       </c>
@@ -47571,10 +48141,18 @@
       </c>
     </row>
     <row r="145" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="A145" s="6">
+        <v>44269</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="8">
+        <v>1</v>
+      </c>
+      <c r="D145" s="8">
+        <v>6</v>
+      </c>
       <c r="E145" s="2" t="s">
         <v>392</v>
       </c>
@@ -47883,10 +48461,10 @@
       <c r="B146" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="8">
         <v>5</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="8">
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -48191,10 +48769,18 @@
       </c>
     </row>
     <row r="147" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
+      <c r="A147" s="6">
+        <v>44260</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C147" s="8">
+        <v>5</v>
+      </c>
+      <c r="D147" s="8">
+        <v>3</v>
+      </c>
       <c r="E147" s="2" t="s">
         <v>392</v>
       </c>
@@ -48811,10 +49397,18 @@
       </c>
     </row>
     <row r="149" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
+      <c r="A149" s="6">
+        <v>44254</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C149" s="9">
+        <v>4</v>
+      </c>
+      <c r="D149" s="9">
+        <v>2</v>
+      </c>
       <c r="E149" s="2" t="s">
         <v>418</v>
       </c>
@@ -49431,10 +50025,18 @@
       </c>
     </row>
     <row r="151" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="A151" s="6">
+        <v>44253</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C151" s="8">
+        <v>4</v>
+      </c>
+      <c r="D151" s="8">
+        <v>6</v>
+      </c>
       <c r="E151" s="2" t="s">
         <v>418</v>
       </c>
@@ -49743,10 +50345,10 @@
       <c r="B152" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C152" s="8">
-        <v>2</v>
-      </c>
-      <c r="D152" s="8">
+      <c r="C152" s="9">
+        <v>2</v>
+      </c>
+      <c r="D152" s="9">
         <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -50051,10 +50653,18 @@
       </c>
     </row>
     <row r="153" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="A153" s="6">
+        <v>44247</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="9">
+        <v>2</v>
+      </c>
+      <c r="D153" s="9">
+        <v>3</v>
+      </c>
       <c r="E153" s="2" t="s">
         <v>329</v>
       </c>
@@ -50363,10 +50973,10 @@
       <c r="B154" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="9">
         <v>0</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="9">
         <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -50671,10 +51281,18 @@
       </c>
     </row>
     <row r="155" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="A155" s="6">
+        <v>44239</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C155" s="9">
+        <v>0</v>
+      </c>
+      <c r="D155" s="9">
+        <v>4</v>
+      </c>
       <c r="E155" s="2" t="s">
         <v>392</v>
       </c>
@@ -50983,10 +51601,10 @@
       <c r="B156" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C156" s="8">
-        <v>2</v>
-      </c>
-      <c r="D156" s="8">
+      <c r="C156" s="9">
+        <v>2</v>
+      </c>
+      <c r="D156" s="9">
         <v>3</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -51291,10 +51909,18 @@
       </c>
     </row>
     <row r="157" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
+      <c r="A157" s="6">
+        <v>44236</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="9">
+        <v>2</v>
+      </c>
+      <c r="D157" s="9">
+        <v>3</v>
+      </c>
       <c r="E157" s="2" t="s">
         <v>116</v>
       </c>
@@ -51603,10 +52229,10 @@
       <c r="B158" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C158" s="9">
-        <v>4</v>
-      </c>
-      <c r="D158" s="9">
+      <c r="C158" s="8">
+        <v>4</v>
+      </c>
+      <c r="D158" s="8">
         <v>1</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -51911,10 +52537,18 @@
       </c>
     </row>
     <row r="159" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
+      <c r="A159" s="6">
+        <v>44232</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C159" s="8">
+        <v>4</v>
+      </c>
+      <c r="D159" s="8">
+        <v>1</v>
+      </c>
       <c r="E159" s="2" t="s">
         <v>227</v>
       </c>
@@ -52223,10 +52857,10 @@
       <c r="B160" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="8">
         <v>6</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="8">
         <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -52531,10 +53165,18 @@
       </c>
     </row>
     <row r="161" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A161" s="6"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="A161" s="6">
+        <v>44226</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C161" s="8">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8">
+        <v>2</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>343</v>
       </c>
@@ -53151,10 +53793,18 @@
       </c>
     </row>
     <row r="163" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A163" s="6"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+      <c r="A163" s="6">
+        <v>44225</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="9">
+        <v>6</v>
+      </c>
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
       <c r="E163" s="2" t="s">
         <v>343</v>
       </c>
@@ -53463,10 +54113,10 @@
       <c r="B164" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C164" s="8">
-        <v>2</v>
-      </c>
-      <c r="D164" s="8">
+      <c r="C164" s="9">
+        <v>2</v>
+      </c>
+      <c r="D164" s="9">
         <v>4</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -53771,10 +54421,18 @@
       </c>
     </row>
     <row r="165" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="A165" s="6">
+        <v>44219</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C165" s="9">
+        <v>2</v>
+      </c>
+      <c r="D165" s="9">
+        <v>4</v>
+      </c>
       <c r="E165" s="2" t="s">
         <v>132</v>
       </c>
@@ -54083,10 +54741,10 @@
       <c r="B166" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C166" s="9">
-        <v>4</v>
-      </c>
-      <c r="D166" s="9">
+      <c r="C166" s="8">
+        <v>4</v>
+      </c>
+      <c r="D166" s="8">
         <v>3</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -54391,10 +55049,18 @@
       </c>
     </row>
     <row r="167" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
+      <c r="A167" s="6">
+        <v>44218</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" s="8">
+        <v>4</v>
+      </c>
+      <c r="D167" s="8">
+        <v>3</v>
+      </c>
       <c r="E167" s="2" t="s">
         <v>132</v>
       </c>
@@ -54703,10 +55369,10 @@
       <c r="B168" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="8">
         <v>8</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="8">
         <v>3</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -55011,10 +55677,18 @@
       </c>
     </row>
     <row r="169" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
+      <c r="A169" s="6">
+        <v>44212</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" s="8">
+        <v>8</v>
+      </c>
+      <c r="D169" s="8">
+        <v>3</v>
+      </c>
       <c r="E169" s="2" t="s">
         <v>170</v>
       </c>
@@ -55631,10 +56305,18 @@
       </c>
     </row>
     <row r="171" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="A171" s="6">
+        <v>44211</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="9">
+        <v>6</v>
+      </c>
+      <c r="D171" s="9">
+        <v>5</v>
+      </c>
       <c r="E171" s="2" t="s">
         <v>170</v>
       </c>
@@ -56251,10 +56933,18 @@
       </c>
     </row>
     <row r="173" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="A173" s="6">
+        <v>44198</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" s="8">
+        <v>1</v>
+      </c>
+      <c r="D173" s="8">
+        <v>2</v>
+      </c>
       <c r="E173" s="2" t="s">
         <v>170</v>
       </c>
@@ -56871,10 +57561,18 @@
       </c>
     </row>
     <row r="175" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
+      <c r="A175" s="6">
+        <v>44197</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" s="9">
+        <v>2</v>
+      </c>
+      <c r="D175" s="9">
+        <v>1</v>
+      </c>
       <c r="E175" s="2" t="s">
         <v>170</v>
       </c>
@@ -57183,10 +57881,10 @@
       <c r="B176" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C176" s="9">
-        <v>2</v>
-      </c>
-      <c r="D176" s="9">
+      <c r="C176" s="8">
+        <v>2</v>
+      </c>
+      <c r="D176" s="8">
         <v>0</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -57491,10 +58189,18 @@
       </c>
     </row>
     <row r="177" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
+      <c r="A177" s="6">
+        <v>44193</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C177" s="8">
+        <v>2</v>
+      </c>
+      <c r="D177" s="8">
+        <v>0</v>
+      </c>
       <c r="E177" s="2" t="s">
         <v>392</v>
       </c>
@@ -57800,13 +58506,13 @@
       <c r="A178" s="6">
         <v>44188</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C178" s="8">
-        <v>2</v>
-      </c>
-      <c r="D178" s="8">
+      <c r="C178" s="11">
+        <v>2</v>
+      </c>
+      <c r="D178" s="11">
         <v>6</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -58111,10 +58817,18 @@
       </c>
     </row>
     <row r="179" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="A179" s="6">
+        <v>44188</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="11">
+        <v>2</v>
+      </c>
+      <c r="D179" s="11">
+        <v>6</v>
+      </c>
       <c r="E179" s="2" t="s">
         <v>274</v>
       </c>
@@ -58423,10 +59137,10 @@
       <c r="B180" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C180" s="8">
-        <v>1</v>
-      </c>
-      <c r="D180" s="8">
+      <c r="C180" s="9">
+        <v>1</v>
+      </c>
+      <c r="D180" s="9">
         <v>2</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -58731,10 +59445,18 @@
       </c>
     </row>
     <row r="181" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="A181" s="6">
+        <v>44186</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1</v>
+      </c>
+      <c r="D181" s="9">
+        <v>2</v>
+      </c>
       <c r="E181" s="2" t="s">
         <v>116</v>
       </c>
@@ -59043,10 +59765,10 @@
       <c r="B182" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C182" s="9">
-        <v>3</v>
-      </c>
-      <c r="D182" s="9">
+      <c r="C182" s="8">
+        <v>3</v>
+      </c>
+      <c r="D182" s="8">
         <v>1</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -59351,10 +60073,18 @@
       </c>
     </row>
     <row r="183" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
+      <c r="A183" s="6">
+        <v>44177</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C183" s="8">
+        <v>3</v>
+      </c>
+      <c r="D183" s="8">
+        <v>1</v>
+      </c>
       <c r="E183" s="2" t="s">
         <v>132</v>
       </c>
@@ -59663,10 +60393,10 @@
       <c r="B184" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C184" s="8">
-        <v>3</v>
-      </c>
-      <c r="D184" s="8">
+      <c r="C184" s="9">
+        <v>3</v>
+      </c>
+      <c r="D184" s="9">
         <v>4</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -59971,10 +60701,18 @@
       </c>
     </row>
     <row r="185" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
+      <c r="A185" s="6">
+        <v>44176</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" s="9">
+        <v>3</v>
+      </c>
+      <c r="D185" s="9">
+        <v>4</v>
+      </c>
       <c r="E185" s="2" t="s">
         <v>132</v>
       </c>
@@ -60591,10 +61329,18 @@
       </c>
     </row>
     <row r="187" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
+      <c r="A187" s="6">
+        <v>44156</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="9">
+        <v>3</v>
+      </c>
+      <c r="D187" s="9">
+        <v>2</v>
+      </c>
       <c r="E187" s="2" t="s">
         <v>274</v>
       </c>
@@ -61211,10 +61957,18 @@
       </c>
     </row>
     <row r="189" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+      <c r="A189" s="6">
+        <v>44155</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C189" s="8">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8">
+        <v>5</v>
+      </c>
       <c r="E189" s="2" t="s">
         <v>274</v>
       </c>
@@ -61831,10 +62585,18 @@
       </c>
     </row>
     <row r="191" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A191" s="6"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
+      <c r="A191" s="6">
+        <v>43896</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" s="8">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8">
+        <v>3</v>
+      </c>
       <c r="E191" s="2" t="s">
         <v>116</v>
       </c>
@@ -62143,10 +62905,10 @@
       <c r="B192" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C192" s="8">
-        <v>3</v>
-      </c>
-      <c r="D192" s="8">
+      <c r="C192" s="9">
+        <v>3</v>
+      </c>
+      <c r="D192" s="9">
         <v>4</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -62451,10 +63213,18 @@
       </c>
     </row>
     <row r="193" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
+      <c r="A193" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C193" s="9">
+        <v>3</v>
+      </c>
+      <c r="D193" s="9">
+        <v>4</v>
+      </c>
       <c r="E193" s="2" t="s">
         <v>274</v>
       </c>
@@ -62763,10 +63533,10 @@
       <c r="B194" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C194" s="9">
-        <v>3</v>
-      </c>
-      <c r="D194" s="9">
+      <c r="C194" s="8">
+        <v>3</v>
+      </c>
+      <c r="D194" s="8">
         <v>2</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -63071,10 +63841,18 @@
       </c>
     </row>
     <row r="195" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
+      <c r="A195" s="6">
+        <v>43889</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" s="8">
+        <v>3</v>
+      </c>
+      <c r="D195" s="8">
+        <v>2</v>
+      </c>
       <c r="E195" s="2" t="s">
         <v>274</v>
       </c>
@@ -63691,10 +64469,18 @@
       </c>
     </row>
     <row r="197" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
+      <c r="A197" s="6">
+        <v>43883</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C197" s="9">
+        <v>6</v>
+      </c>
+      <c r="D197" s="9">
+        <v>1</v>
+      </c>
       <c r="E197" s="2" t="s">
         <v>329</v>
       </c>
@@ -64311,10 +65097,18 @@
       </c>
     </row>
     <row r="199" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
+      <c r="A199" s="6">
+        <v>43882</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C199" s="9">
+        <v>4</v>
+      </c>
+      <c r="D199" s="9">
+        <v>3</v>
+      </c>
       <c r="E199" s="2" t="s">
         <v>329</v>
       </c>
@@ -64623,10 +65417,10 @@
       <c r="B200" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="9">
         <v>0</v>
       </c>
-      <c r="D200" s="8">
+      <c r="D200" s="9">
         <v>1</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -64931,10 +65725,18 @@
       </c>
     </row>
     <row r="201" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
+      <c r="A201" s="6">
+        <v>43876</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C201" s="9">
+        <v>0</v>
+      </c>
+      <c r="D201" s="9">
+        <v>1</v>
+      </c>
       <c r="E201" s="2" t="s">
         <v>418</v>
       </c>
@@ -65243,10 +66045,10 @@
       <c r="B202" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C202" s="9">
-        <v>3</v>
-      </c>
-      <c r="D202" s="9">
+      <c r="C202" s="8">
+        <v>3</v>
+      </c>
+      <c r="D202" s="8">
         <v>2</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -65551,10 +66353,18 @@
       </c>
     </row>
     <row r="203" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
+      <c r="A203" s="6">
+        <v>43875</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C203" s="8">
+        <v>3</v>
+      </c>
+      <c r="D203" s="8">
+        <v>2</v>
+      </c>
       <c r="E203" s="2" t="s">
         <v>418</v>
       </c>
@@ -65863,10 +66673,10 @@
       <c r="B204" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="8">
         <v>7</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="8">
         <v>4</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -66171,10 +66981,18 @@
       </c>
     </row>
     <row r="205" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A205" s="6"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
+      <c r="A205" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C205" s="8">
+        <v>7</v>
+      </c>
+      <c r="D205" s="8">
+        <v>4</v>
+      </c>
       <c r="E205" s="2" t="s">
         <v>170</v>
       </c>
@@ -66791,10 +67609,18 @@
       </c>
     </row>
     <row r="207" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A207" s="6"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
+      <c r="A207" s="6">
+        <v>43861</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C207" s="9">
+        <v>7</v>
+      </c>
+      <c r="D207" s="9">
+        <v>4</v>
+      </c>
       <c r="E207" s="2" t="s">
         <v>170</v>
       </c>
@@ -67103,10 +67929,10 @@
       <c r="B208" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C208" s="8">
-        <v>2</v>
-      </c>
-      <c r="D208" s="8">
+      <c r="C208" s="9">
+        <v>2</v>
+      </c>
+      <c r="D208" s="9">
         <v>3</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -67411,10 +68237,18 @@
       </c>
     </row>
     <row r="209" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
+      <c r="A209" s="6">
+        <v>43856</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="9">
+        <v>2</v>
+      </c>
+      <c r="D209" s="9">
+        <v>3</v>
+      </c>
       <c r="E209" s="2" t="s">
         <v>259</v>
       </c>
@@ -68031,10 +68865,18 @@
       </c>
     </row>
     <row r="211" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
+      <c r="A211" s="6">
+        <v>43855</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C211" s="8">
+        <v>2</v>
+      </c>
+      <c r="D211" s="8">
+        <v>3</v>
+      </c>
       <c r="E211" s="2" t="s">
         <v>245</v>
       </c>
@@ -68343,10 +69185,10 @@
       <c r="B212" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C212" s="9">
-        <v>3</v>
-      </c>
-      <c r="D212" s="9">
+      <c r="C212" s="8">
+        <v>3</v>
+      </c>
+      <c r="D212" s="8">
         <v>2</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -68651,10 +69493,18 @@
       </c>
     </row>
     <row r="213" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A213" s="6"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
+      <c r="A213" s="6">
+        <v>43848</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" s="8">
+        <v>3</v>
+      </c>
+      <c r="D213" s="8">
+        <v>2</v>
+      </c>
       <c r="E213" s="2" t="s">
         <v>227</v>
       </c>
@@ -69271,10 +70121,18 @@
       </c>
     </row>
     <row r="215" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A215" s="6"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
+      <c r="A215" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" s="9">
+        <v>3</v>
+      </c>
+      <c r="D215" s="9">
+        <v>2</v>
+      </c>
       <c r="E215" s="2" t="s">
         <v>418</v>
       </c>
@@ -69891,10 +70749,18 @@
       </c>
     </row>
     <row r="217" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
+      <c r="A217" s="6">
+        <v>43841</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C217" s="8">
+        <v>1</v>
+      </c>
+      <c r="D217" s="8">
+        <v>2</v>
+      </c>
       <c r="E217" s="2" t="s">
         <v>392</v>
       </c>
@@ -70203,10 +71069,10 @@
       <c r="B218" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C218" s="8">
-        <v>2</v>
-      </c>
-      <c r="D218" s="8">
+      <c r="C218" s="9">
+        <v>2</v>
+      </c>
+      <c r="D218" s="9">
         <v>6</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -70511,10 +71377,18 @@
       </c>
     </row>
     <row r="219" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A219" s="6"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
+      <c r="A219" s="6">
+        <v>43837</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C219" s="9">
+        <v>2</v>
+      </c>
+      <c r="D219" s="9">
+        <v>6</v>
+      </c>
       <c r="E219" s="2" t="s">
         <v>343</v>
       </c>
@@ -71131,10 +72005,18 @@
       </c>
     </row>
     <row r="221" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A221" s="6"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
+      <c r="A221" s="6">
+        <v>43833</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C221" s="8">
+        <v>2</v>
+      </c>
+      <c r="D221" s="8">
+        <v>5</v>
+      </c>
       <c r="E221" s="2" t="s">
         <v>227</v>
       </c>
@@ -71440,13 +72322,13 @@
       <c r="A222" s="6">
         <v>43828</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C222" s="8">
-        <v>3</v>
-      </c>
-      <c r="D222" s="8">
+      <c r="C222" s="11">
+        <v>3</v>
+      </c>
+      <c r="D222" s="11">
         <v>4</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -71751,10 +72633,18 @@
       </c>
     </row>
     <row r="223" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
+      <c r="A223" s="6">
+        <v>43828</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C223" s="11">
+        <v>3</v>
+      </c>
+      <c r="D223" s="11">
+        <v>4</v>
+      </c>
       <c r="E223" s="2" t="s">
         <v>609</v>
       </c>
@@ -72371,10 +73261,18 @@
       </c>
     </row>
     <row r="225" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A225" s="6"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
+      <c r="A225" s="6">
+        <v>43827</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C225" s="9">
+        <v>3</v>
+      </c>
+      <c r="D225" s="9">
+        <v>2</v>
+      </c>
       <c r="E225" s="2" t="s">
         <v>754</v>
       </c>
@@ -72683,10 +73581,10 @@
       <c r="B226" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C226" s="9">
+      <c r="C226" s="8">
         <v>7</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="8">
         <v>4</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -72991,10 +73889,18 @@
       </c>
     </row>
     <row r="227" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
+      <c r="A227" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C227" s="8">
+        <v>7</v>
+      </c>
+      <c r="D227" s="8">
+        <v>4</v>
+      </c>
       <c r="E227" s="2" t="s">
         <v>486</v>
       </c>
@@ -73611,10 +74517,18 @@
       </c>
     </row>
     <row r="229" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A229" s="6"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
+      <c r="A229" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C229" s="9">
+        <v>3</v>
+      </c>
+      <c r="D229" s="9">
+        <v>2</v>
+      </c>
       <c r="E229" s="2" t="s">
         <v>486</v>
       </c>
@@ -74231,10 +75145,18 @@
       </c>
     </row>
     <row r="231" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A231" s="6"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
+      <c r="A231" s="6">
+        <v>43799</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C231" s="9">
+        <v>4</v>
+      </c>
+      <c r="D231" s="9">
+        <v>3</v>
+      </c>
       <c r="E231" s="2" t="s">
         <v>765</v>
       </c>
@@ -74543,10 +75465,10 @@
       <c r="B232" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C232" s="9">
+      <c r="C232" s="8">
         <v>6</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="8">
         <v>4</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -74851,10 +75773,18 @@
       </c>
     </row>
     <row r="233" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A233" s="6"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
+      <c r="A233" s="6">
+        <v>43798</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C233" s="8">
+        <v>6</v>
+      </c>
+      <c r="D233" s="8">
+        <v>4</v>
+      </c>
       <c r="E233" s="2" t="s">
         <v>765</v>
       </c>
@@ -75471,10 +76401,18 @@
       </c>
     </row>
     <row r="235" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A235" s="6"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
+      <c r="A235" s="6">
+        <v>43792</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C235" s="8">
+        <v>2</v>
+      </c>
+      <c r="D235" s="8">
+        <v>5</v>
+      </c>
       <c r="E235" s="2" t="s">
         <v>392</v>
       </c>
@@ -75783,10 +76721,10 @@
       <c r="B236" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C236" s="8">
-        <v>3</v>
-      </c>
-      <c r="D236" s="8">
+      <c r="C236" s="9">
+        <v>3</v>
+      </c>
+      <c r="D236" s="9">
         <v>3</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -76091,10 +77029,18 @@
       </c>
     </row>
     <row r="237" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A237" s="6"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
+      <c r="A237" s="6">
+        <v>43791</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C237" s="9">
+        <v>3</v>
+      </c>
+      <c r="D237" s="9">
+        <v>3</v>
+      </c>
       <c r="E237" s="2" t="s">
         <v>392</v>
       </c>
@@ -76403,10 +77349,10 @@
       <c r="B238" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C238" s="9">
-        <v>2</v>
-      </c>
-      <c r="D238" s="9">
+      <c r="C238" s="8">
+        <v>2</v>
+      </c>
+      <c r="D238" s="8">
         <v>1</v>
       </c>
       <c r="E238" s="2" t="s">
@@ -76711,10 +77657,18 @@
       </c>
     </row>
     <row r="239" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A239" s="6"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
+      <c r="A239" s="6">
+        <v>43785</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C239" s="8">
+        <v>2</v>
+      </c>
+      <c r="D239" s="8">
+        <v>1</v>
+      </c>
       <c r="E239" s="2" t="s">
         <v>116</v>
       </c>
@@ -77023,10 +77977,10 @@
       <c r="B240" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C240" s="8">
-        <v>3</v>
-      </c>
-      <c r="D240" s="8">
+      <c r="C240" s="9">
+        <v>3</v>
+      </c>
+      <c r="D240" s="9">
         <v>3</v>
       </c>
       <c r="E240" s="2" t="s">
@@ -77331,10 +78285,18 @@
       </c>
     </row>
     <row r="241" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A241" s="6"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
+      <c r="A241" s="6">
+        <v>43784</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C241" s="9">
+        <v>3</v>
+      </c>
+      <c r="D241" s="9">
+        <v>3</v>
+      </c>
       <c r="E241" s="2" t="s">
         <v>116</v>
       </c>
@@ -77643,10 +78605,10 @@
       <c r="B242" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C242" s="8">
-        <v>1</v>
-      </c>
-      <c r="D242" s="8">
+      <c r="C242" s="9">
+        <v>1</v>
+      </c>
+      <c r="D242" s="9">
         <v>5</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -77951,10 +78913,18 @@
       </c>
     </row>
     <row r="243" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A243" s="6"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
+      <c r="A243" s="6">
+        <v>43778</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C243" s="9">
+        <v>1</v>
+      </c>
+      <c r="D243" s="9">
+        <v>5</v>
+      </c>
       <c r="E243" s="2" t="s">
         <v>132</v>
       </c>
@@ -78263,10 +79233,10 @@
       <c r="B244" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="9">
         <v>0</v>
       </c>
-      <c r="D244" s="8">
+      <c r="D244" s="9">
         <v>6</v>
       </c>
       <c r="E244" s="2" t="s">
@@ -78571,10 +79541,18 @@
       </c>
     </row>
     <row r="245" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A245" s="6"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
+      <c r="A245" s="6">
+        <v>43777</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C245" s="9">
+        <v>0</v>
+      </c>
+      <c r="D245" s="9">
+        <v>6</v>
+      </c>
       <c r="E245" s="2" t="s">
         <v>132</v>
       </c>
@@ -79191,10 +80169,18 @@
       </c>
     </row>
     <row r="247" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A247" s="6"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
+      <c r="A247" s="6">
+        <v>43772</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C247" s="8">
+        <v>2</v>
+      </c>
+      <c r="D247" s="8">
+        <v>3</v>
+      </c>
       <c r="E247" s="2" t="s">
         <v>343</v>
       </c>
@@ -79503,10 +80489,10 @@
       <c r="B248" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C248" s="9">
-        <v>3</v>
-      </c>
-      <c r="D248" s="9">
+      <c r="C248" s="8">
+        <v>3</v>
+      </c>
+      <c r="D248" s="8">
         <v>2</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -79811,10 +80797,18 @@
       </c>
     </row>
     <row r="249" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A249" s="6"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
+      <c r="A249" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C249" s="8">
+        <v>3</v>
+      </c>
+      <c r="D249" s="8">
+        <v>2</v>
+      </c>
       <c r="E249" s="2" t="s">
         <v>343</v>
       </c>
@@ -80431,10 +81425,18 @@
       </c>
     </row>
     <row r="251" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A251" s="6"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
+      <c r="A251" s="6">
+        <v>43756</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C251" s="9">
+        <v>5</v>
+      </c>
+      <c r="D251" s="9">
+        <v>2</v>
+      </c>
       <c r="E251" s="2" t="s">
         <v>785</v>
       </c>
@@ -80743,10 +81745,10 @@
       <c r="B252" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="C252" s="8">
-        <v>1</v>
-      </c>
-      <c r="D252" s="8">
+      <c r="C252" s="9">
+        <v>1</v>
+      </c>
+      <c r="D252" s="9">
         <v>2</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -81051,10 +82053,18 @@
       </c>
     </row>
     <row r="253" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A253" s="6"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
+      <c r="A253" s="6">
+        <v>43749</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C253" s="9">
+        <v>1</v>
+      </c>
+      <c r="D253" s="9">
+        <v>2</v>
+      </c>
       <c r="E253" s="2" t="s">
         <v>790</v>
       </c>
@@ -81671,10 +82681,18 @@
       </c>
     </row>
     <row r="255" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A255" s="6"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
+      <c r="A255" s="6">
+        <v>43743</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C255" s="8">
+        <v>3</v>
+      </c>
+      <c r="D255" s="8">
+        <v>3</v>
+      </c>
       <c r="E255" s="2" t="s">
         <v>627</v>
       </c>
@@ -82589,516 +83607,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:CZ1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="508">
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="D222:D223"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
